--- a/C2/W3/sched-example-4-2-above-LUB-harmonic-OVERLOAD.xlsx
+++ b/C2/W3/sched-example-4-2-above-LUB-harmonic-OVERLOAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siewerts\Teaching\1-CU-ECEE-5623-RTES\Timing_Diagrams_Updated_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A85A5C-9B7F-4CB5-9E42-58E8D7DB0222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C46F60-FE5C-408A-91E1-20259676B111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>S1</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>3! Options for ties, 3 Outcomes possible</t>
+  </si>
+  <si>
+    <t>LLF Schedule</t>
+  </si>
+  <si>
+    <t>Miss Warning</t>
   </si>
 </sst>
 </file>
@@ -2432,708 +2438,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED43BCD-3877-4739-8910-44F89208D43F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B3AA2F-764A-4847-8F90-701C90CA70AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC69BD0B-EC00-498F-9900-91127D760BF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="2514600"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8098EB9-AAA4-46C0-AC79-99FB92536CF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4581525" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD6B6BB-78EC-4734-8EE6-7C9A622010AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A88DC4-B8F7-4C2E-A4A8-874ADC751280}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7019925" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ABCD23-10F1-4314-B511-560C3D6B26F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5513825-DCE3-4B84-ADBC-5B1F003A1B65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9477375" y="2524125"/>
-          <a:ext cx="1200150" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AB016A-C122-46F6-870C-A50BCCF2A5ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="2838450"/>
-          <a:ext cx="2447925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C90095-8C52-45CF-B832-D551364D7AC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="2847975"/>
-          <a:ext cx="2447925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D892CBA-4843-47C8-8C8E-44955D9F7414}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="2847975"/>
-          <a:ext cx="2447925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C78C3C-0FED-405F-9D78-C62E2CA45C1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277225" y="2857500"/>
-          <a:ext cx="2447925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EB85B6-381E-4281-857F-53F6CB89A6C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="3162300"/>
-          <a:ext cx="9753600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
@@ -3836,29 +3140,29 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFA49DF-FC5B-46B3-9E10-A4E76FEAD415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="4629150"/>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC6C4A3-73C2-415C-B611-BC47D01FEA77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3890,29 +3194,29 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C319442-0186-4E7F-8F23-18081B35BFD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="4629150"/>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3678FB73-F517-4E62-BC74-7CEB33D29E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3944,29 +3248,29 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A310B8E-928A-4D22-89F6-DABC173EA109}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="4619625"/>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A587981-463A-480B-9931-B56DC78D5EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="6724650"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3998,29 +3302,29 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C87D943-AB69-41F6-9887-556DB068ECCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4581525" y="4629150"/>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5685FA5F-01A6-47C8-B11C-1CA15827EB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4052,29 +3356,29 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEBB05A-7AA4-47E3-AEE6-3C41030541EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="4629150"/>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB954E0-A932-4920-ACBE-08246216046D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4106,29 +3410,29 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Arrow Connector 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F990EB-0EA5-4BD5-82F7-83A62AD7808A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7019925" y="4629150"/>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B140D3A-6B40-4FAC-9860-DE220855DDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4160,29 +3464,29 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942CE790-D11E-474A-8D45-0290F81EAA39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="4629150"/>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F0073A-A50B-4AAE-8A64-F053B50E42F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4214,29 +3518,29 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621A52F8-E660-43E2-87DB-69BC2E290AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9477375" y="4629150"/>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222005C2-F1CA-4C36-955D-620F3AC0708F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477375" y="6734175"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4268,29 +3572,29 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7967B1-E5C0-4789-97CB-D1A74CDFF0DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="4943475"/>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD79E16B-5E7E-48D7-A70D-EF70E4F58AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="7048500"/>
           <a:ext cx="2447925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4322,29 +3626,29 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC7BCEE-1C00-43B8-8BAD-C53F2CC980BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="4953000"/>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F04A4D-3439-41BF-950E-1226F22AEDCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="7058025"/>
           <a:ext cx="2447925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4376,29 +3680,29 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5A6297-47A1-41C3-AD48-9EA7EBADB1EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="4953000"/>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E04593-CF90-4186-A5FD-296A58EBC1AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="7058025"/>
           <a:ext cx="2447925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4430,29 +3734,29 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EA9EF2-AA82-4F43-8CA9-595E2D26E3FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277225" y="4962525"/>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A85AF0C-8265-45CE-87F1-0A24A8EDD345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="7067550"/>
           <a:ext cx="2447925" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4484,29 +3788,29 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4857A0-8D42-4416-94CD-705B623C9902}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="5267325"/>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3CAAD9-8285-489F-9808-5F7738F843BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="7372350"/>
           <a:ext cx="9753600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4861,10 +4165,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5102,7 +4406,6 @@
       <c r="O7" s="17"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
@@ -5224,7 +4527,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>27</v>
       </c>
@@ -5257,7 +4560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -5287,7 +4590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5307,7 +4610,7 @@
       <c r="Q16" s="1"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
@@ -5336,7 +4639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5356,7 +4659,7 @@
       <c r="Q18" s="1"/>
       <c r="T18" s="22"/>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -5386,7 +4689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5405,7 +4708,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -5426,7 +4729,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>0</v>
       </c>
@@ -5479,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>1</v>
       </c>
@@ -5532,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
@@ -5585,7 +4888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -5604,7 +4907,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -5623,7 +4926,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
@@ -5644,7 +4947,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>0</v>
       </c>
@@ -5665,7 +4968,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5684,7 +4987,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>1</v>
       </c>
@@ -5708,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5727,7 +5030,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>2</v>
       </c>
@@ -5749,7 +5052,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5768,7 +5071,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
@@ -5789,7 +5092,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>0</v>
       </c>
@@ -5842,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
@@ -5895,7 +5198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>2</v>
       </c>
@@ -5948,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5966,7 +5269,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5983,7 +5286,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>28</v>
       </c>
@@ -6000,7 +5303,7 @@
       <c r="Q40" s="4"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +5325,7 @@
       <c r="Q41" s="17"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6041,7 +5344,7 @@
       <c r="P42" s="1"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>1</v>
       </c>
@@ -6063,7 +5366,7 @@
       <c r="Q43" s="3"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6082,7 +5385,7 @@
       <c r="P44" s="1"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -6106,7 +5409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6125,7 +5428,7 @@
       <c r="P46" s="1"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>24</v>
       </c>
@@ -6136,7 +5439,7 @@
       <c r="Q47" s="3"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +5493,7 @@
       </c>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>1</v>
       </c>
@@ -6244,7 +5547,7 @@
       </c>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>2</v>
       </c>
@@ -6298,7 +5601,7 @@
       </c>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="3"/>
       <c r="E51" s="3"/>
@@ -6320,40 +5623,46 @@
       <c r="R53"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="A54" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="A55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="17"/>
+      <c r="R55"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6369,25 +5678,32 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
+      <c r="R56"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="A57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="18"/>
+      <c r="R57"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6403,25 +5719,34 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
+      <c r="R58"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="A59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6437,74 +5762,185 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
+      <c r="R60"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="A61" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="A62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R62"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="A63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="K63" s="2">
+        <v>3</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="3">
+        <v>4</v>
+      </c>
+      <c r="O63" s="3">
+        <v>3</v>
+      </c>
+      <c r="P63" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>0</v>
+      </c>
+      <c r="R63"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="A64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3">
+        <v>11</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2">
+        <v>6</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>4</v>
+      </c>
+      <c r="L64" s="3">
+        <v>3</v>
+      </c>
+      <c r="M64" s="3">
+        <v>2</v>
+      </c>
+      <c r="N64" s="3">
+        <v>2</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1</v>
+      </c>
+      <c r="P64" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>0</v>
+      </c>
+      <c r="R64"/>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
